--- a/実績置き場/用語集.xlsx
+++ b/実績置き場/用語集.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="用語集" sheetId="1" r:id="rId1"/>
+    <sheet name="メモ(石井)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>

--- a/実績置き場/用語集.xlsx
+++ b/実績置き場/用語集.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\520-255\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\フジシステムズGit\202304-ALL\実績置き場\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8ACA54-A4ED-472F-AB41-FF2BC274B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモ(石井)" sheetId="1" r:id="rId1"/>
+    <sheet name="用語集(半林)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>・AML（アンチ・マネー・ローンダリング）</t>
     <phoneticPr fontId="1"/>
@@ -294,12 +296,512 @@
   </si>
   <si>
     <t>中小企業・個人事業主など20名以下の組織向けのクレジットカードは「ビジネスカード」、20名以上の大手企業向けのクレジットカードは「コーポレートカード」と呼び分けられている。</t>
+  </si>
+  <si>
+    <t>クレジットカード用語</t>
+  </si>
+  <si>
+    <t>・イシュア</t>
+  </si>
+  <si>
+    <t>・役割</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・会員管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クレジットカードの審査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クレジットカードの発行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クレジットカード利用代金の徴収</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・国際ブランド</t>
+  </si>
+  <si>
+    <t>・決済機能の提供</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・国際決済ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アクワイアラ(立替払い取次業者)</t>
+    <rPh sb="8" eb="11">
+      <t>タテカエバラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トリツギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クレジットカード加盟店の審査、管理、指導</t>
+    <rPh sb="9" eb="12">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規加盟店の開拓</t>
+    <rPh sb="1" eb="6">
+      <t>シンキカメイテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・立替払い取次業者としての役割</t>
+    <rPh sb="1" eb="4">
+      <t>タテカエバラ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トリツギギョウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・加盟店に対して決済手数料を差し引いた金額を入金する(義務)</t>
+    <rPh sb="1" eb="4">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ケッサイテスウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ギム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イシュアに対して加盟店分の利用代金を受け取る</t>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カメイテンブン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>リヨウダイキン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・利用代金を受け取る際インターチェンジフィー(売上交換手数料)を支払う</t>
+    <rPh sb="1" eb="5">
+      <t>リヨウダイキン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="30">
+      <t>ウリアゲコウカンテスウリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シハライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・決済代行会社</t>
+    <rPh sb="1" eb="7">
+      <t>ケッサイダイコウガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済手数料は取扱金額が小さい小規模店や中小企業ほど高くなることが多いので決済代行会社を利用する場合がある</t>
+    <rPh sb="0" eb="5">
+      <t>ケッサイテスウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トリアツカイキンガク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ショウキボテン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>チュウショウキギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="42">
+      <t>ケッサイダイコウガイシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・利点</t>
+    <rPh sb="1" eb="3">
+      <t>リテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・複数の国際ブランドの売上、経費を一括で管理できる</t>
+    <rPh sb="1" eb="3">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・決済手数料が安い</t>
+    <rPh sb="1" eb="3">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・事業者にもよるが電子マネーにも対応している</t>
+    <rPh sb="1" eb="4">
+      <t>ジギョウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャッシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシング機能は金を借りるときに利用される。本来金を借りる際は銀行等に申請し、</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ギンコウトウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返済能力があるか審査を受ける必要があるがカードを作成した際に審査済みのため新たに受ける必要はない</t>
+    <rPh sb="37" eb="38">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法は以下の2つ</t>
+    <rPh sb="0" eb="4">
+      <t>シハライホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1回払い</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎月末日までの借入金を翌月末にまとめて引き落とされる方法</t>
+    <rPh sb="0" eb="4">
+      <t>マイツキマツジツ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カリイレキン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヨクゲツマツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リボルビング払い</t>
+    <rPh sb="7" eb="8">
+      <t>バラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>借入金額や回数に関係なく毎月ほぼ一定の金額で返済する方法</t>
+    <rPh sb="0" eb="4">
+      <t>カリイレキンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ショッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能を利用することでクレジットカード加盟店での支払いを後払いにすることができる</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アトバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能の支払い方法は以下の6通り</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1回払い</t>
+    <rPh sb="2" eb="4">
+      <t>カイバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用代金を支払日に一括で支払う方法</t>
+    <rPh sb="0" eb="4">
+      <t>リヨウダイキン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シハライビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2回払い</t>
+    <rPh sb="2" eb="4">
+      <t>カイバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用代金を支払日と次の支払日に支払う方法</t>
+    <rPh sb="0" eb="4">
+      <t>リヨウダイキン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シハライビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シハライビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボーナス1回払い</t>
+    <rPh sb="6" eb="8">
+      <t>カイバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボーナス2回払い</t>
+    <rPh sb="6" eb="8">
+      <t>カイバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・分割払い</t>
+    <rPh sb="1" eb="4">
+      <t>ブンカツバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,426 +1147,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -1074,4 +1576,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5C19F4-36CB-402D-9264-071544636FE2}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="19" width="2.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/実績置き場/用語集.xlsx
+++ b/実績置き場/用語集.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\フジシステムズGit\202304-ALL\実績置き場\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\520-255\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8ACA54-A4ED-472F-AB41-FF2BC274B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="メモ(石井)" sheetId="1" r:id="rId1"/>
     <sheet name="用語集(半林)" sheetId="2" r:id="rId2"/>
+    <sheet name="カード紛失" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="161">
   <si>
     <t>・AML（アンチ・マネー・ローンダリング）</t>
     <phoneticPr fontId="1"/>
@@ -796,12 +796,223 @@
       <t>ブンカツバラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・三井住友カード</t>
+    <rPh sb="1" eb="3">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミトモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンラインでの手続きが可能。</t>
+    <rPh sb="7" eb="9">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETC、家族カードなど付帯カードのみの手続きもできる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン手続きは再発行手数料が無料。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動チャット</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード無効化、再発行</t>
+    <rPh sb="3" eb="6">
+      <t>ムコウカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードを一時的に停止、再開</t>
+    <rPh sb="4" eb="7">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話でもできるが、再発行手数料1,100円（税込）がかかる。</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・JCBカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンラインまたは、電話で利用停止・再発行の手続き。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紛失時の流れ</t>
+    <rPh sb="0" eb="3">
+      <t>フンシツジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警察へ「紛失届」を提出。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再発行カードを受領。（手続き後1～2週間でお届け）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種支払いの登録カード番号を変更。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三者の不正利用は全額補償</t>
+  </si>
+  <si>
+    <t>紛失登録完了から60日前にさかのぼり、それ以降の損害額が補償される。</t>
+  </si>
+  <si>
+    <t>以下のようなケースは補償の対象外。</t>
+    <rPh sb="15" eb="16">
+      <t>ソト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・会員の家族、同居人など会員の関係者による利用や、関係者が関与した盗難・紛失等による利用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・JCBへ盗難・紛失の連絡をした日から61日以前の利用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・暗証番号が入力された利用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・楽天カード</t>
+    <rPh sb="1" eb="3">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紛失・盗難専用ダイヤル（24時間受付）へ連絡。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットサポートあり。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードが不正使用された場合は、紛失・盗難届けを出した60日前にさかのぼり、それ以降の損害額を楽天が負担する。</t>
+    <rPh sb="46" eb="48">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・dカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン手続きあり</t>
+    <rPh sb="5" eb="7">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用停止の流れを丁寧に説明している。</t>
+    <rPh sb="0" eb="4">
+      <t>リヨウテイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊なケースを除き、紛失・盗難の届け出日から遡って90日前の利用から、ドコモがその損害を補償。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンラインにて手続きが出来ない場合は、dカードセンター紛失盗難デスクへ電話でお問い合わせ。</t>
+    <rPh sb="35" eb="37">
+      <t>デンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イオンカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万一不正使用された場合、イオン銀行がカード紛失の届け出を受理した日を含めて61日前にさかのぼり、その後に発生した損害額について全額補填。</t>
+  </si>
+  <si>
+    <t>Web手続き対象外カードもある。</t>
+  </si>
+  <si>
+    <t>・東京VISAカード</t>
+    <rPh sb="1" eb="3">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード停止、再発行の手続きはWeb、もしくは電話で手続き可能。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別なケースを除き、紛失・盗難の届け出日の60日前以降に不正使用された代金は、東京VISAカードがその損害を補償する。</t>
+  </si>
+  <si>
+    <t>・au PAYカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正利用された場合でも、紛失・盗難のご連絡を受付けた日から起算して、60日前にさかのぼって補償してもらえる。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,12 +1047,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -858,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +1083,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,6 +1106,353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381532</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="3810532" cy="3924848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134517</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5953125"/>
+          <a:ext cx="8364117" cy="2257740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134517</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8810625"/>
+          <a:ext cx="8364117" cy="2257740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48110</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>209945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13811250"/>
+          <a:ext cx="3477110" cy="2829320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>153570</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>171806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20955000"/>
+          <a:ext cx="8383170" cy="2553056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>477848</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>86335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24288750"/>
+          <a:ext cx="11450648" cy="4372585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77551</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>200585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30241875"/>
+          <a:ext cx="9678751" cy="4010585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515379</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>66917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35956875"/>
+          <a:ext cx="7373379" cy="1733792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343714</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>181432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39052500"/>
+          <a:ext cx="5830114" cy="3277057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,426 +1717,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -1579,232 +2149,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5C19F4-36CB-402D-9264-071544636FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="19" width="2.69921875" customWidth="1"/>
+    <col min="1" max="19" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>123</v>
       </c>
@@ -1814,4 +2384,217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>